--- a/非文本文件/新建 Microsoft Excel 工作表.xlsx
+++ b/非文本文件/新建 Microsoft Excel 工作表.xlsx
@@ -1,32 +1,219 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\temp\非文本文件\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2605D0-AC0B-4E18-A026-9936BFC3D208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scaling value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def multiplier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resistance multiplier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>critical multiplier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+抗性-抗性穿透</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点0，对抗0.4，其他0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage bonus multiplier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incoming damage bonus multiplier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage decrease multiplier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮期望伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作延后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作提前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生效概率=基础概率*(1+效果命中)*(1-效果抵抗)*(1-特殊效果抵抗)</t>
+  </si>
+  <si>
+    <t>生效概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果抵抗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊效果抵抗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础击破伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韧性条长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破韧属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击破特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击破伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF1E1F20"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,11 +236,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +522,236 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.4140625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="J3" s="2">
+        <f>D9/10000</f>
+        <v>0.01</v>
+      </c>
+      <c r="L3">
+        <f>A3*B3*C3*(1+D3)*(1+E3*F3)*(1+G3)*(1+H3)*(1+I3)*J3</f>
+        <v>0.89100000000000013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>100</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <f>A9/B9*C9</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>100</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0.9</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <f>A18*B18*C18*D18</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <f>A22*B22*C22*D22*E22*F22*G22</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>